--- a/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Sal.xlsx
+++ b/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Sal.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sal Cisne Refinado 1kg</t>
+          <t>Sal Cisne Light 500g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a22ea45b-2a2a-4cd0-9e5b-d3866041bc58.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f9a19a7-8667-4f6c-b190-082f1296baca.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896035270920</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sal Refinado Lebre 1kg</t>
+          <t>Sal Marinho Jasmine 1kg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bbf9a996-03b9-4964-a1a4-f301ab23f10e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce99c2b0-8895-4439-a619-4acf1d4dcb99.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896283000164</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sal Grosso P/ Churrasco Cisne 1kg</t>
+          <t>Sal Grosso P/ Churrasco Aji Sal 500g</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf7feec5-093c-48cf-aca2-e4656f7857c0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/211c0238-2f6c-45ff-9d55-0e89bfba7eee.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891132080038</t>
         </is>
       </c>
     </row>
@@ -555,6 +575,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c297498a-fe31-4d4b-8b38-742f623ff5b5.jpg</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896256042375</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sal Cisne Light 500g</t>
+          <t>Sal Para Churrasco Marinho Lebre 1kg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f9a19a7-8667-4f6c-b190-082f1296baca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b100aa9-b8c0-4877-88c7-e4edac222e08.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896110100814</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sal Marinho Jasmine 1kg</t>
+          <t>Sal Lebre 500g Parrilha</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce99c2b0-8895-4439-a619-4acf1d4dcb99.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/271b15fa-1e53-4088-8b0f-da1d4c621106.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896110195162</t>
         </is>
       </c>
     </row>
@@ -623,125 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sal Cisne Ovo 100g</t>
+          <t>Sal Do Himalaia Lebre Frasco 100g</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6b6874a-cf1e-4b31-8f2d-63026e4f63e9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sal</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sal Para Churrasco Marinho Lebre 1kg</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b100aa9-b8c0-4877-88c7-e4edac222e08.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Sal</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sal Grosso P/ Churrasco Aji Sal 500g</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/211c0238-2f6c-45ff-9d55-0e89bfba7eee.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Sal</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sal Do Himalaia Lebre Frasco 100g</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2c5b90c4-ac3f-409f-880c-232e418d6c83.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Sal</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sal Lebre 500g Parrilha</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/271b15fa-1e53-4088-8b0f-da1d4c621106.jpg</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896110100067</t>
         </is>
       </c>
     </row>
